--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DIMMA</t>
+          <t>SERGEY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DIMMA</t>
+          <t>GORSHKOV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIUUD</t>
+          <t>WEFWFW</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DIUUD</t>
+          <t>WERWR</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7987987</t>
+          <t>werwer</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [10/1]</t>
+          <t>TBILISI    [022/1]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,30 +483,30 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>78987878</t>
+          <t>werwerw</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>8979</v>
+        <v>25</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIMMA</t>
+          <t>SERGEY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DIMMA</t>
+          <t>GORSHKOV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DIUUD</t>
+          <t>WEFWFW</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DIUUD</t>
+          <t>WERWR</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7987987</t>
+          <t>werwer</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TBILISI    [10/2]</t>
+          <t>TBILISI    [022/2]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -551,30 +551,30 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>78987878</t>
+          <t>werwerw</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIMMA</t>
+          <t>SERGEY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DIMMA</t>
+          <t>GORSHKOV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,17 +589,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DIUUD</t>
+          <t>WEFWFW</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DIUUD</t>
+          <t>WERWR</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7987987</t>
+          <t>werwer</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TBILISI    [10/3]</t>
+          <t>TBILISI    [022/3]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -619,18 +619,290 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>78987878</t>
+          <t>werwerw</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="N4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SERGEY</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GORSHKOV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WEFWFW</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>WERWR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>werwer</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TBILISI    [022/4]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>werwerw</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAXIM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>KUZMIN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AQWE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>QWE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TBILISI    [023/1]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3245324235</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MAXIM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KUZMIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AQWE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>QWE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TBILISI    [023/2]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3245324235</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>15</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MAXIM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KUZMIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AQWE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>QWE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TBILISI    [023/3]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3245324235</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>15</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SERGEY</t>
+          <t>MAXIM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GORSHKOV</t>
+          <t>KUZMIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WEFWFW</t>
+          <t>UOIUO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WERWR</t>
+          <t>UOIUO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>werwer</t>
+          <t>oioiu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [022/1]</t>
+          <t>TBILISI    [025]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,11 +483,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>werwerw</t>
+          <t>uoiuoi</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -495,18 +495,18 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SERGEY</t>
+          <t>IVAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GORSHKOV</t>
+          <t>SOKOLOV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WEFWFW</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WERWR</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>werwer</t>
+          <t>098</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TBILISI    [022/2]</t>
+          <t>TBILISI    [026/1]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>werwerw</t>
+          <t>89709</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -563,18 +563,18 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SERGEY</t>
+          <t>IVAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GORSHKOV</t>
+          <t>SOKOLOV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,17 +589,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WEFWFW</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WERWR</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>werwer</t>
+          <t>098</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TBILISI    [022/3]</t>
+          <t>TBILISI    [026/2]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>werwerw</t>
+          <t>89709</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -631,18 +631,18 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SERGEY</t>
+          <t>IVAN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GORSHKOV</t>
+          <t>SOKOLOV</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WEFWFW</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WERWR</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>werwer</t>
+          <t>098</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TBILISI    [022/4]</t>
+          <t>TBILISI    [026/3]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>werwerw</t>
+          <t>89709</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -699,18 +699,18 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAXIM</t>
+          <t>IVAN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KUZMIN</t>
+          <t>SOKOLOV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AQWE</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>QWE</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>098</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TBILISI    [023/1]</t>
+          <t>TBILISI    [026/4]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -755,11 +755,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3245324235</t>
+          <t>89709</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -767,18 +767,18 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAXIM</t>
+          <t>IVAN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KUZMIN</t>
+          <t>SOKOLOV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AQWE</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>QWE</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>098</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TBILISI    [023/2]</t>
+          <t>TBILISI    [026/5]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3245324235</t>
+          <t>89709</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -835,18 +835,18 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MAXIM</t>
+          <t>IVAN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KUZMIN</t>
+          <t>SOKOLOV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -861,17 +861,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AQWE</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>QWE</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>098</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TBILISI    [023/3]</t>
+          <t>TBILISI    [026/6]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -891,11 +891,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3245324235</t>
+          <t>89709</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -903,6 +903,142 @@
         </is>
       </c>
       <c r="N8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IVAN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SOKOLOV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8790</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8790</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TBILISI    [026/7]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>89709</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IVAN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SOKOLOV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8790</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8790</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TBILISI    [026/8]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>89709</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAXIM</t>
+          <t>IGOR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KUZMIN</t>
+          <t>KARPOV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UOIUO</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>UOIUO</t>
+          <t>DSDDD</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>oioiu</t>
+          <t>SDASD</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [025]</t>
+          <t>TBILISI    [027]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,11 +483,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>uoiuoi</t>
+          <t>DASDASDA</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -495,551 +495,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/1]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>25</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/2]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>25</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/3]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>25</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/4]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>25</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/5]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>25</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/6]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>25</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/7]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>25</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>IVAN</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SOKOLOV</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>098</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>TBILISI    [026/8]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>89709</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>25</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IGOR</t>
+          <t>YURY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KARPOV</t>
+          <t>ANTONOV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DSDDD</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SDASD</t>
+          <t>312312</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [027]</t>
+          <t>TBILISI    [028]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>DASDASDA</t>
+          <t>12312312</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>121</v>
+        <v>31231</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YURY</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ANTONOV</t>
+          <t>MOROZOV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>123123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>312312</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [028]</t>
+          <t>TBILISI    [01]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12312312</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -495,7 +495,143 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>31231</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELENA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KONOVA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3223</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3223</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TBILISI    [02]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>25</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELENA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KONSTANTINOVA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>UIWRG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>UIWRG</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>UIJIUJ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>JVARI    [03]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>JVARI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>IUIUJ</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>YURY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MOROZOV</t>
+          <t>ANTONOV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123123</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>312312</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [01]</t>
+          <t>TBILISI    [028]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12312312</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -495,143 +495,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELENA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>KONOVA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3223</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3223</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Q23</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TBILISI    [02]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>25</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELENA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KONSTANTINOVA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>UIWRG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>UIWRG</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>UIJIUJ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>JVARI    [03]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>JVARI</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>IUIUJ</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>25</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
+        <v>31231</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>EKATERINA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MOROZOV</t>
+          <t>KAZAKOVA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -448,22 +448,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S.P.B</t>
+          <t>MOSCOW</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ЦШТЦУ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ГТШГТ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>829238</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    [01]</t>
+          <t>TBILISI     13</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,11 +483,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>288298</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -495,143 +495,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELENA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>KONOVA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3223</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3223</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Q23</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TBILISI    [02]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>25</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELENA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KONSTANTINOVA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>UIWRG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>UIWRG</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>UIJIUJ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>JVARI    [03]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>JVARI</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>IUIUJ</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>25</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EKATERINA</t>
+          <t>EERH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KAZAKOVA</t>
+          <t>EERH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -448,22 +448,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MOSCOW</t>
+          <t>S.P.B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ЦШТЦУ</t>
+          <t>IUHIUH</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ГТШГТ</t>
+          <t>IUHIUH</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>829238</t>
+          <t>uihiuhiuh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI     13</t>
+          <t>TBILISI    01/1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,19 +483,631 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>288298</t>
+          <t>iuhiuh</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EERH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EERH</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IUHIUH</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>IUHIUH</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>uihiuhiuh</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TBILISI    01/2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>iuhiuh</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EERH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EERH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IUHIUH</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IUHIUH</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>uihiuhiuh</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TBILISI    01/3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>iuhiuh</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EERH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EERH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IUHIUH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>IUHIUH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>uihiuhiuh</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TBILISI    01/4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>iuhiuh</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAKSIM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GALKIN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MATARADZE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>57001060603</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TBILISI    02/1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>571181762</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>25</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>908</v>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MAKSIM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GALKIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MATARADZE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>57001060603</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TBILISI    02/2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>571181762</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>25</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MAKSIM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GALKIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MATARADZE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>57001060603</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TBILISI    02/3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>571181762</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>25</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MAKSIM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GALKIN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MATARADZE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>57001060603</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TBILISI    02/4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>571181762</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MAKSIM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GALKIN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MATARADZE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>57001060603</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TBILISI    02/5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>571181762</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MAKSIM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GALKIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Russian Federation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S.P.B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ALEKSANDRE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MATARADZE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>57001060603</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TBILISI    02/6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>TBILISI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>571181762</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>25</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/manifest.xlsx
+++ b/manifest.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -433,12 +433,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EERH</t>
+          <t>ОЛИДЛИ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EERH</t>
+          <t>ОЛИДЛИ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -453,17 +453,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IUHIUH</t>
+          <t>76786</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IUHIUH</t>
+          <t>76786</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>uihiuhiuh</t>
+          <t>876876</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBILISI    01/1</t>
+          <t>TBILISI    01</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>iuhiuh</t>
+          <t>786876</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -495,619 +495,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EERH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EERH</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>IUHIUH</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>IUHIUH</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>uihiuhiuh</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TBILISI    01/2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>iuhiuh</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>15</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EERH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EERH</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>IUHIUH</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>IUHIUH</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>uihiuhiuh</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TBILISI    01/3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>iuhiuh</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>15</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EERH</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EERH</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>IUHIUH</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>IUHIUH</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>uihiuhiuh</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>TBILISI    01/4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>iuhiuh</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MAKSIM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GALKIN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MATARADZE</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>57001060603</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TBILISI    02/1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>571181762</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>25</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MAKSIM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GALKIN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MATARADZE</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>57001060603</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>TBILISI    02/2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>571181762</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>25</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MAKSIM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GALKIN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MATARADZE</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>57001060603</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TBILISI    02/3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>571181762</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>25</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MAKSIM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GALKIN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>MATARADZE</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>57001060603</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TBILISI    02/4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>571181762</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>25</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MAKSIM</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GALKIN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>MATARADZE</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>57001060603</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>TBILISI    02/5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>571181762</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>25</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MAKSIM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GALKIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Russian Federation</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>S.P.B</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ALEKSANDRE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MATARADZE</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>57001060603</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>TBILISI    02/6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TBILISI</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>571181762</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>25</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
